--- a/docss/trend/hungary/E_huntington.xlsx
+++ b/docss/trend/hungary/E_huntington.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\hungary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Documents\IC3\ic3desarrollo\docss\trend\hungary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -221,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -239,7 +239,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1559,7 +1558,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1582,224 +1581,224 @@
       <c r="A2">
         <v>1999</v>
       </c>
-      <c r="B2" s="7">
-        <v>6.8428090773522854E-2</v>
-      </c>
-      <c r="C2" s="7">
-        <v>4.0844671428203583E-2</v>
-      </c>
-      <c r="D2" s="7">
-        <v>9.0665741823613644E-2</v>
+      <c r="B2">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="C2">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D2">
+        <v>9.0999999999999998E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2000</v>
       </c>
-      <c r="B3" s="7">
-        <v>6.8008379079401493E-2</v>
-      </c>
-      <c r="C3" s="7">
-        <v>8.7456291541457176E-2</v>
-      </c>
-      <c r="D3" s="7">
-        <v>5.0004568882286549E-2</v>
+      <c r="B3">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="C3">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.05</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2001</v>
       </c>
-      <c r="B4" s="7">
-        <v>0.13381686992943287</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0.16098598390817642</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0.11285051796585321</v>
+      <c r="B4">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="C4">
+        <v>0.161</v>
+      </c>
+      <c r="D4">
+        <v>0.113</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2002</v>
       </c>
-      <c r="B5" s="7">
-        <v>0.13713695155456662</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0.17063985019922256</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0.11983136460185051</v>
+      <c r="B5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="C5">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D5">
+        <v>0.12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2003</v>
       </c>
-      <c r="B6" s="7">
-        <v>8.6995469406247139E-2</v>
-      </c>
-      <c r="C6" s="7">
-        <v>8.4663217887282372E-2</v>
-      </c>
-      <c r="D6" s="7">
-        <v>9.2523641884326935E-2</v>
+      <c r="B6">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="C6">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="D6">
+        <v>9.2999999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2004</v>
       </c>
-      <c r="B7" s="7">
-        <v>9.4141580164432526E-2</v>
-      </c>
-      <c r="C7" s="7">
-        <v>8.0614758655428886E-2</v>
-      </c>
-      <c r="D7" s="7">
-        <v>9.9015319719910622E-2</v>
+      <c r="B7">
+        <v>9.4E-2</v>
+      </c>
+      <c r="C7">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="D7">
+        <v>9.9000000000000005E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2005</v>
       </c>
-      <c r="B8" s="7">
-        <v>5.5719342082738876E-2</v>
-      </c>
-      <c r="C8" s="7">
-        <v>2.0169481635093689E-2</v>
-      </c>
-      <c r="D8" s="7">
-        <v>8.7883153930306435E-2</v>
+      <c r="B8">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="C8">
+        <v>0.02</v>
+      </c>
+      <c r="D8">
+        <v>8.7999999999999995E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2006</v>
       </c>
-      <c r="B9" s="7">
-        <v>7.1461265906691551E-2</v>
-      </c>
-      <c r="C9" s="7">
-        <v>3.8491394370794296E-2</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0.10206144396215677</v>
+      <c r="B9">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="C9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="D9">
+        <v>0.10199999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2007</v>
       </c>
-      <c r="B10" s="7">
-        <v>0.11214467044919729</v>
-      </c>
-      <c r="C10" s="7">
-        <v>9.4943154603242874E-2</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0.12514377385377884</v>
+      <c r="B10">
+        <v>0.112</v>
+      </c>
+      <c r="C10">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D10">
+        <v>0.125</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2008</v>
       </c>
-      <c r="B11" s="7">
-        <v>9.2850102111697197E-2</v>
-      </c>
-      <c r="C11" s="7">
-        <v>9.4732381403446198E-2</v>
-      </c>
-      <c r="D11" s="7">
-        <v>9.0448080562055111E-2</v>
+      <c r="B11">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="C11">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D11">
+        <v>0.09</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2009</v>
       </c>
-      <c r="B12" s="7">
-        <v>0.11674543563276529</v>
-      </c>
-      <c r="C12" s="7">
-        <v>0.15711363963782787</v>
-      </c>
-      <c r="D12" s="7">
-        <v>8.2308549433946609E-2</v>
+      <c r="B12">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="C12">
+        <v>0.157</v>
+      </c>
+      <c r="D12">
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2010</v>
       </c>
-      <c r="B13" s="7">
-        <v>5.4614377208054066E-2</v>
-      </c>
-      <c r="C13" s="7">
-        <v>3.4922193735837936E-2</v>
-      </c>
-      <c r="D13" s="7">
-        <v>7.6788764446973801E-2</v>
+      <c r="B13">
+        <v>5.5E-2</v>
+      </c>
+      <c r="C13">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D13">
+        <v>7.6999999999999999E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2011</v>
       </c>
-      <c r="B14" s="7">
-        <v>9.9381920415908098E-2</v>
-      </c>
-      <c r="C14" s="7">
-        <v>3.5986538976430893E-2</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0.16090668831020594</v>
+      <c r="B14">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="C14">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D14">
+        <v>0.161</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2012</v>
       </c>
-      <c r="B15" s="7">
-        <v>7.1603755932301283E-2</v>
-      </c>
-      <c r="C15" s="7">
-        <v>8.5579300299286842E-2</v>
-      </c>
-      <c r="D15" s="7">
-        <v>5.7089817244559526E-2</v>
+      <c r="B15">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="C15">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="D15">
+        <v>5.7000000000000002E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2013</v>
       </c>
-      <c r="B16" s="7">
-        <v>0.14305744227021933</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0.1059784721583128</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0.17918354459106922</v>
+      <c r="B16">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="C16">
+        <v>0.106</v>
+      </c>
+      <c r="D16">
+        <v>0.17899999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2014</v>
       </c>
-      <c r="B17" s="7">
-        <v>0.11552542727440596</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0.17737219110131264</v>
-      </c>
-      <c r="D17" s="7">
-        <v>5.9427026659250259E-2</v>
+      <c r="B17">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C17">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="D17">
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
   </sheetData>
